--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42800,6 +42800,43 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42837,6 +42837,43 @@
         </is>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42874,6 +42874,41 @@
         </is>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42909,6 +42909,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>170000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42944,6 +42944,43 @@
         <v>170000</v>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42981,6 +42981,41 @@
         </is>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43016,6 +43016,41 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>749500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43051,6 +43051,41 @@
         <v>749500</v>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>1748900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43086,6 +43086,41 @@
         <v>1748900</v>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>755000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43121,6 +43121,43 @@
         <v>755000</v>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43158,6 +43158,76 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>6058000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43228,6 +43228,78 @@
         <v>6058000</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>240000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43300,6 +43300,43 @@
         <v>240000</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43337,6 +43337,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43374,6 +43374,43 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43411,6 +43411,41 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43446,6 +43446,41 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43481,6 +43481,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>1171000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2582"/>
+  <dimension ref="A1:I2583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91326,6 +91326,41 @@
         <v>1171000</v>
       </c>
     </row>
+    <row r="2583">
+      <c r="A2583" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2583" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2583" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D2583" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E2583" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2583" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2583" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2583" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2583" t="n">
+        <v>5112800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2583"/>
+  <dimension ref="A1:I2584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91361,6 +91361,41 @@
         <v>5112800</v>
       </c>
     </row>
+    <row r="2584">
+      <c r="A2584" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2584" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2584" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D2584" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E2584" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2584" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2584" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2584" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2584" t="n">
+        <v>60000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2584"/>
+  <dimension ref="A1:I2585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91396,6 +91396,41 @@
         <v>60000</v>
       </c>
     </row>
+    <row r="2585">
+      <c r="A2585" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2585" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2585" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D2585" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E2585" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2585" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2585" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2585" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2585" t="n">
+        <v>183600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2585"/>
+  <dimension ref="A1:I2586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91431,6 +91431,41 @@
         <v>183600</v>
       </c>
     </row>
+    <row r="2586">
+      <c r="A2586" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2586" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2586" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D2586" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E2586" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2586" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2586" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2586" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2586" t="n">
+        <v>3416100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2586"/>
+  <dimension ref="A1:I2587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91466,6 +91466,41 @@
         <v>3416100</v>
       </c>
     </row>
+    <row r="2587">
+      <c r="A2587" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2587" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2587" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D2587" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E2587" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2587" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2587" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2587" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2587" t="n">
+        <v>99000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2587"/>
+  <dimension ref="A1:I2588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91501,6 +91501,43 @@
         <v>99000</v>
       </c>
     </row>
+    <row r="2588">
+      <c r="A2588" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2588" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2588" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D2588" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E2588" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2588" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2588" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2588" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2588" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2588"/>
+  <dimension ref="A1:I2589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91538,6 +91538,41 @@
         </is>
       </c>
     </row>
+    <row r="2589">
+      <c r="A2589" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2589" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2589" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D2589" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E2589" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2589" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2589" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2589" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2589" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2589"/>
+  <dimension ref="A1:I2590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91573,6 +91573,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="2590">
+      <c r="A2590" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2590" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2590" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D2590" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E2590" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2590" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2590" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2590" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2590" t="n">
+        <v>508000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2590"/>
+  <dimension ref="A1:I2591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91608,6 +91608,41 @@
         <v>508000</v>
       </c>
     </row>
+    <row r="2591">
+      <c r="A2591" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2591" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2591" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D2591" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E2591" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2591" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2591" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2591" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2591" t="n">
+        <v>3100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2591"/>
+  <dimension ref="A1:I2592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91643,6 +91643,43 @@
         <v>3100</v>
       </c>
     </row>
+    <row r="2592">
+      <c r="A2592" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2592" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2592" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D2592" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E2592" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2592" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2592" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2592" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2592" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2592"/>
+  <dimension ref="A1:I2593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91680,6 +91680,43 @@
         </is>
       </c>
     </row>
+    <row r="2593">
+      <c r="A2593" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2593" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2593" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D2593" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E2593" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2593" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2593" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2593" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2593" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2593"/>
+  <dimension ref="A1:I2594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91717,6 +91717,41 @@
         </is>
       </c>
     </row>
+    <row r="2594">
+      <c r="A2594" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2594" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2594" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D2594" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E2594" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2594" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2594" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2594" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2594" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2594"/>
+  <dimension ref="A1:I2595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91752,6 +91752,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2595">
+      <c r="A2595" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2595" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2595" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D2595" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E2595" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2595" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2595" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2595" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2595" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2595"/>
+  <dimension ref="A1:I2596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91789,6 +91789,43 @@
         </is>
       </c>
     </row>
+    <row r="2596">
+      <c r="A2596" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2596" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2596" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D2596" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E2596" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2596" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2596" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2596" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2596" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7018.xlsx
+++ b/data/7018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2596"/>
+  <dimension ref="A1:I2597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91826,6 +91826,43 @@
         </is>
       </c>
     </row>
+    <row r="2597">
+      <c r="A2597" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2597" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2597" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="D2597" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="E2597" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2597" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2597" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2597" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2597" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
